--- a/crmApp-backend/Database/Python_Script/GROUPAA.xlsx
+++ b/crmApp-backend/Database/Python_Script/GROUPAA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projet\eq14\crmApp-backend\Database\Python_Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="GROUPAA" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -2286,8 +2286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DX28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:DX1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AG25" sqref="AG25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
